--- a/Code/Results/Cases/Case_1_188/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_188/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6076865771500479</v>
+        <v>0.618628007520158</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04585617236804396</v>
+        <v>0.09218878428082977</v>
       </c>
       <c r="E2">
-        <v>0.1054201624348678</v>
+        <v>0.08563459442923715</v>
       </c>
       <c r="F2">
-        <v>1.698910125180419</v>
+        <v>1.960902129220301</v>
       </c>
       <c r="G2">
-        <v>0.0008128756577704127</v>
+        <v>0.002525037949218901</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.789936548974346</v>
+        <v>1.457948466860898</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.461616616466102</v>
+        <v>1.010141107076464</v>
       </c>
       <c r="L2">
-        <v>0.3242966224079566</v>
+        <v>0.2759125721007649</v>
       </c>
       <c r="M2">
-        <v>0.2195493314474604</v>
+        <v>0.2058299514185826</v>
       </c>
       <c r="N2">
-        <v>1.498217169892442</v>
+        <v>2.769825489529772</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5373310527779154</v>
+        <v>0.603318653067646</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0479585894313157</v>
+        <v>0.0927874162145832</v>
       </c>
       <c r="E3">
-        <v>0.09485587927071393</v>
+        <v>0.08236719045959973</v>
       </c>
       <c r="F3">
-        <v>1.564450086337914</v>
+        <v>1.936539090764086</v>
       </c>
       <c r="G3">
-        <v>0.0008200522130209051</v>
+        <v>0.002529608024369839</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7802808888267379</v>
+        <v>1.4612687311635</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.126224083587658</v>
+        <v>0.9230254759955585</v>
       </c>
       <c r="L3">
-        <v>0.2869702488880392</v>
+        <v>0.2676792952302378</v>
       </c>
       <c r="M3">
-        <v>0.194211146646861</v>
+        <v>0.200292546409468</v>
       </c>
       <c r="N3">
-        <v>1.534561845186488</v>
+        <v>2.785798471458072</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4946695335701747</v>
+        <v>0.5942337657181866</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04928105383325088</v>
+        <v>0.09316928904889821</v>
       </c>
       <c r="E4">
-        <v>0.08846199674962918</v>
+        <v>0.08033280062050352</v>
       </c>
       <c r="F4">
-        <v>1.484995146882667</v>
+        <v>1.922656360596633</v>
       </c>
       <c r="G4">
-        <v>0.0008245884487087804</v>
+        <v>0.002532563185254732</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7754524121469899</v>
+        <v>1.463823668693415</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.923040790422164</v>
+        <v>0.8700509239259304</v>
       </c>
       <c r="L4">
-        <v>0.2644946140330262</v>
+        <v>0.2627850741520774</v>
       </c>
       <c r="M4">
-        <v>0.1788933517341995</v>
+        <v>0.1970042163166497</v>
       </c>
       <c r="N4">
-        <v>1.558595820471567</v>
+        <v>2.796345286285018</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4774074459350572</v>
+        <v>0.5906111230870437</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04982775335998113</v>
+        <v>0.09332850378856339</v>
       </c>
       <c r="E5">
-        <v>0.0858747633069683</v>
+        <v>0.07949656594656318</v>
       </c>
       <c r="F5">
-        <v>1.453333286972992</v>
+        <v>1.917269065996308</v>
       </c>
       <c r="G5">
-        <v>0.0008264707268274192</v>
+        <v>0.002533805056369165</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7737481879556043</v>
+        <v>1.464994648901211</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.840837559203152</v>
+        <v>0.8485919211350677</v>
       </c>
       <c r="L5">
-        <v>0.2554360293622722</v>
+        <v>0.2608310945477683</v>
       </c>
       <c r="M5">
-        <v>0.1727058776731702</v>
+        <v>0.1956923172035125</v>
       </c>
       <c r="N5">
-        <v>1.568806051615184</v>
+        <v>2.80082897792407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4745481656903792</v>
+        <v>0.5900143974127303</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04991899846794778</v>
+        <v>0.09335515861503829</v>
       </c>
       <c r="E6">
-        <v>0.08544612488275405</v>
+        <v>0.07935727133161308</v>
       </c>
       <c r="F6">
-        <v>1.448117363225606</v>
+        <v>1.916390801452636</v>
       </c>
       <c r="G6">
-        <v>0.0008267853449896539</v>
+        <v>0.002534013543799155</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7734807426818051</v>
+        <v>1.465196930248894</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.827221084212226</v>
+        <v>0.8450364088368758</v>
       </c>
       <c r="L6">
-        <v>0.2539376173346426</v>
+        <v>0.2605090799722518</v>
       </c>
       <c r="M6">
-        <v>0.1716815940483798</v>
+        <v>0.1954761771947773</v>
       </c>
       <c r="N6">
-        <v>1.57052614694534</v>
+        <v>2.801584708240618</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4944362492711747</v>
+        <v>0.5941845871312097</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04928839548284225</v>
+        <v>0.09317142170582349</v>
       </c>
       <c r="E7">
-        <v>0.08842703646867278</v>
+        <v>0.08032155218761972</v>
       </c>
       <c r="F7">
-        <v>1.4845653232925</v>
+        <v>1.922582613125883</v>
       </c>
       <c r="G7">
-        <v>0.0008246136959041678</v>
+        <v>0.002532579781137027</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7754283786426797</v>
+        <v>1.463838935303002</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.921929878662866</v>
+        <v>0.8697610009573111</v>
       </c>
       <c r="L7">
-        <v>0.2643720541307033</v>
+        <v>0.2627585583513934</v>
       </c>
       <c r="M7">
-        <v>0.1788096912542798</v>
+        <v>0.1969864096616334</v>
       </c>
       <c r="N7">
-        <v>1.558731854220625</v>
+        <v>2.796405002899021</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5833089005721774</v>
+        <v>0.6132841025494145</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04657443336305134</v>
+        <v>0.09239222247498624</v>
       </c>
       <c r="E8">
-        <v>0.1017552417271581</v>
+        <v>0.08451377403241622</v>
       </c>
       <c r="F8">
-        <v>1.651864118923314</v>
+        <v>1.952277993061486</v>
       </c>
       <c r="G8">
-        <v>0.000815323870334288</v>
+        <v>0.002526582835881479</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7863707049340007</v>
+        <v>1.458986136900776</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.345342790660936</v>
+        <v>0.9799962229496089</v>
       </c>
       <c r="L8">
-        <v>0.3113277193826889</v>
+        <v>0.2730402853864291</v>
       </c>
       <c r="M8">
-        <v>0.2107593734601068</v>
+        <v>0.2038975035787018</v>
       </c>
       <c r="N8">
-        <v>1.510382302619995</v>
+        <v>2.775179443131712</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7624512810707813</v>
+        <v>0.6532287681117168</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04151096643520535</v>
+        <v>0.09097773541076926</v>
       </c>
       <c r="E9">
-        <v>0.1288764293672315</v>
+        <v>0.09251654099428919</v>
       </c>
       <c r="F9">
-        <v>2.007715023424694</v>
+        <v>2.019083367273211</v>
       </c>
       <c r="G9">
-        <v>0.0007980832733212868</v>
+        <v>0.00251600042208649</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8172036482942886</v>
+        <v>1.453567285125089</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.202207682444453</v>
+        <v>1.200304228289781</v>
       </c>
       <c r="L9">
-        <v>0.4074616335864079</v>
+        <v>0.2944838366644262</v>
       </c>
       <c r="M9">
-        <v>0.2755964735485605</v>
+        <v>0.218335140214414</v>
       </c>
       <c r="N9">
-        <v>1.429977131031265</v>
+        <v>2.739428505003815</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8979520195332213</v>
+        <v>0.6840853477629594</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03796186680488844</v>
+        <v>0.09000764189842236</v>
       </c>
       <c r="E10">
-        <v>0.1497947225356846</v>
+        <v>0.09827123740057786</v>
       </c>
       <c r="F10">
-        <v>2.290928594682612</v>
+        <v>2.073445500873348</v>
       </c>
       <c r="G10">
-        <v>0.0007859309073533922</v>
+        <v>0.002508935568559459</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8465540716804796</v>
+        <v>1.452086783023951</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.85524898333631</v>
+        <v>1.364776578270835</v>
       </c>
       <c r="L10">
-        <v>0.4813896557920856</v>
+        <v>0.3110261084698038</v>
       </c>
       <c r="M10">
-        <v>0.324991705005317</v>
+        <v>0.2294821760458419</v>
       </c>
       <c r="N10">
-        <v>1.380867292708658</v>
+        <v>2.716750456849283</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9606650523565179</v>
+        <v>0.6984488811767449</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03638821010546245</v>
+        <v>0.08958131868310915</v>
       </c>
       <c r="E11">
-        <v>0.1596281023540769</v>
+        <v>0.1008638444543415</v>
       </c>
       <c r="F11">
-        <v>2.425710869488896</v>
+        <v>2.099335074379539</v>
       </c>
       <c r="G11">
-        <v>0.0007804940192863371</v>
+        <v>0.002505874092857751</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8616044493198629</v>
+        <v>1.451957013929118</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.159280472139073</v>
+        <v>1.440187090843892</v>
       </c>
       <c r="L11">
-        <v>0.5159439106346326</v>
+        <v>0.3187242491797804</v>
       </c>
       <c r="M11">
-        <v>0.347950981852172</v>
+        <v>0.2346705896227022</v>
       </c>
       <c r="N11">
-        <v>1.360985354739938</v>
+        <v>2.707214634723613</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.984587845525084</v>
+        <v>0.7039347407521177</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03579858027167049</v>
+        <v>0.08942203572926566</v>
       </c>
       <c r="E12">
-        <v>0.1634072261725308</v>
+        <v>0.1018421047267495</v>
       </c>
       <c r="F12">
-        <v>2.477718562058158</v>
+        <v>2.109306433428713</v>
       </c>
       <c r="G12">
-        <v>0.0007784464721715371</v>
+        <v>0.002504736574118122</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8675706328265207</v>
+        <v>1.451986103543483</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.275583071791857</v>
+        <v>1.468829415154005</v>
       </c>
       <c r="L12">
-        <v>0.5291807666319812</v>
+        <v>0.3216642960575484</v>
       </c>
       <c r="M12">
-        <v>0.3567251750134091</v>
+        <v>0.2366521954038348</v>
       </c>
       <c r="N12">
-        <v>1.353838099758505</v>
+        <v>2.703716087063654</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9794275262080134</v>
+        <v>0.7027511901367234</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03592528106627402</v>
+        <v>0.08945624421038545</v>
       </c>
       <c r="E13">
-        <v>0.1625906888979181</v>
+        <v>0.1016315727042389</v>
       </c>
       <c r="F13">
-        <v>2.466472754676886</v>
+        <v>2.107151459625655</v>
       </c>
       <c r="G13">
-        <v>0.0007788869777748523</v>
+        <v>0.002504980591669939</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8662734504239111</v>
+        <v>1.451976358528071</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.250480134070358</v>
+        <v>1.462656937453062</v>
       </c>
       <c r="L13">
-        <v>0.5263228915142832</v>
+        <v>0.3210299948000852</v>
       </c>
       <c r="M13">
-        <v>0.3548317721792671</v>
+        <v>0.2362246716509944</v>
       </c>
       <c r="N13">
-        <v>1.355359936476361</v>
+        <v>2.704464556578358</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.96262956901964</v>
+        <v>0.6988992717838585</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03633957246360442</v>
+        <v>0.08956817114470894</v>
       </c>
       <c r="E14">
-        <v>0.159937841440783</v>
+        <v>0.1009443960168284</v>
       </c>
       <c r="F14">
-        <v>2.429969467044742</v>
+        <v>2.100152062088583</v>
       </c>
       <c r="G14">
-        <v>0.0007803253513701426</v>
+        <v>0.002505780072541562</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8620898029103685</v>
+        <v>1.451957839035295</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.16882420517328</v>
+        <v>1.442541782852061</v>
       </c>
       <c r="L14">
-        <v>0.517029753913917</v>
+        <v>0.3189656286960485</v>
       </c>
       <c r="M14">
-        <v>0.3486711774587548</v>
+        <v>0.2348332797284769</v>
       </c>
       <c r="N14">
-        <v>1.36038952591565</v>
+        <v>2.706924551928708</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9523637301440999</v>
+        <v>0.6965459341498672</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03659416900195378</v>
+        <v>0.08963701053431983</v>
       </c>
       <c r="E15">
-        <v>0.1583204276432788</v>
+        <v>0.1005230278868652</v>
       </c>
       <c r="F15">
-        <v>2.407739868046335</v>
+        <v>2.095886569641024</v>
       </c>
       <c r="G15">
-        <v>0.0007812078085194658</v>
+        <v>0.002506272612430574</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8595626730276535</v>
+        <v>1.451956684563378</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.118965712015381</v>
+        <v>1.430231899004752</v>
       </c>
       <c r="L15">
-        <v>0.5113578216635801</v>
+        <v>0.3177043928474319</v>
       </c>
       <c r="M15">
-        <v>0.3449083594319688</v>
+        <v>0.2339832072871175</v>
       </c>
       <c r="N15">
-        <v>1.363520877078869</v>
+        <v>2.708446022526033</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8938768695020087</v>
+        <v>0.6831532074710935</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03806556402947869</v>
+        <v>0.09003580472645023</v>
       </c>
       <c r="E16">
-        <v>0.1491592841780189</v>
+        <v>0.09810130731077038</v>
       </c>
       <c r="F16">
-        <v>2.282249335272823</v>
+        <v>2.071776960673347</v>
       </c>
       <c r="G16">
-        <v>0.0007862879044865301</v>
+        <v>0.002509138699375534</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8456065611199008</v>
+        <v>1.452106208482768</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.835534094773891</v>
+        <v>1.359860304460597</v>
       </c>
       <c r="L16">
-        <v>0.4791516294664717</v>
+        <v>0.3105265022166463</v>
       </c>
       <c r="M16">
-        <v>0.323501910020461</v>
+        <v>0.229145463373726</v>
       </c>
       <c r="N16">
-        <v>1.382218425467656</v>
+        <v>2.717389370417351</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8582858362868535</v>
+        <v>0.675020683899163</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03897894629105991</v>
+        <v>0.09028428989630655</v>
       </c>
       <c r="E17">
-        <v>0.1436271075294826</v>
+        <v>0.09660928570790972</v>
       </c>
       <c r="F17">
-        <v>2.206864950559861</v>
+        <v>2.057284113331662</v>
       </c>
       <c r="G17">
-        <v>0.0007894265082262208</v>
+        <v>0.002510935892752482</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.837495427396675</v>
+        <v>1.452337226751311</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.663556703987467</v>
+        <v>1.316841730473925</v>
       </c>
       <c r="L17">
-        <v>0.4596437624485219</v>
+        <v>0.3061674406385038</v>
       </c>
       <c r="M17">
-        <v>0.3105016098549243</v>
+        <v>0.2262077479346587</v>
       </c>
       <c r="N17">
-        <v>1.394337463847435</v>
+        <v>2.72307589437753</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8379144840395725</v>
+        <v>0.6703738405760191</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03950811609345539</v>
+        <v>0.09042862154041842</v>
       </c>
       <c r="E18">
-        <v>0.1404743781528239</v>
+        <v>0.09574873173700382</v>
       </c>
       <c r="F18">
-        <v>2.164058119000046</v>
+        <v>2.049057347678158</v>
       </c>
       <c r="G18">
-        <v>0.0007912404632251556</v>
+        <v>0.002511983938906653</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8329885233498047</v>
+        <v>1.452521276960887</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.565283582424456</v>
+        <v>1.29215417283865</v>
       </c>
       <c r="L18">
-        <v>0.4485090749346341</v>
+        <v>0.3036765019299281</v>
       </c>
       <c r="M18">
-        <v>0.3030695870478652</v>
+        <v>0.2245291204265172</v>
       </c>
       <c r="N18">
-        <v>1.401537556275699</v>
+        <v>2.726420086774539</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8310336216737824</v>
+        <v>0.6688057924909003</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0396879281334277</v>
+        <v>0.09047773176807716</v>
       </c>
       <c r="E19">
-        <v>0.1394116616355312</v>
+        <v>0.09545694995456344</v>
       </c>
       <c r="F19">
-        <v>2.149656060072104</v>
+        <v>2.046290628211707</v>
       </c>
       <c r="G19">
-        <v>0.0007918561867518353</v>
+        <v>0.002512341256809323</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8314891161930902</v>
+        <v>1.452592381168934</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.532115631887791</v>
+        <v>1.283804907622653</v>
       </c>
       <c r="L19">
-        <v>0.4447532360609898</v>
+        <v>0.3028359070613078</v>
       </c>
       <c r="M19">
-        <v>0.3005607511747002</v>
+        <v>0.2239626683011124</v>
       </c>
       <c r="N19">
-        <v>1.40401400071606</v>
+        <v>2.727564982019587</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8620641054866667</v>
+        <v>0.6758832224723221</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03888131747984058</v>
+        <v>0.09025769232495495</v>
       </c>
       <c r="E20">
-        <v>0.1442129250243944</v>
+        <v>0.09676835964211961</v>
       </c>
       <c r="F20">
-        <v>2.214831807089183</v>
+        <v>2.05881560114652</v>
       </c>
       <c r="G20">
-        <v>0.0007890915094719286</v>
+        <v>0.002510743094474292</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8383423202751104</v>
+        <v>1.452307337788412</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.68179618551261</v>
+        <v>1.321415370846637</v>
       </c>
       <c r="L20">
-        <v>0.4617114048102877</v>
+        <v>0.3066297850664057</v>
       </c>
       <c r="M20">
-        <v>0.3118807476514149</v>
+        <v>0.2265193274850219</v>
       </c>
       <c r="N20">
-        <v>1.393023420928643</v>
+        <v>2.722462950412137</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9675586214508485</v>
+        <v>0.7000294083458414</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03621771100980808</v>
+        <v>0.08953523694399923</v>
       </c>
       <c r="E21">
-        <v>0.160715458080027</v>
+        <v>0.1011463305576399</v>
       </c>
       <c r="F21">
-        <v>2.440664113592561</v>
+        <v>2.102203401910216</v>
       </c>
       <c r="G21">
-        <v>0.0007799025755871325</v>
+        <v>0.002505544654805431</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8633112048258695</v>
+        <v>1.451961155145717</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.19277524394596</v>
+        <v>1.448447749434933</v>
       </c>
       <c r="L21">
-        <v>0.5197550890264893</v>
+        <v>0.3195713060835885</v>
       </c>
       <c r="M21">
-        <v>0.3504784398801633</v>
+        <v>0.2352415078391985</v>
       </c>
       <c r="N21">
-        <v>1.358901617687266</v>
+        <v>2.706198937710056</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.037534800559115</v>
+        <v>0.7160824182790293</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03451373667168589</v>
+        <v>0.08907564114734257</v>
       </c>
       <c r="E22">
-        <v>0.1718294670228744</v>
+        <v>0.103987223907918</v>
       </c>
       <c r="F22">
-        <v>2.593966303123409</v>
+        <v>2.131536735629055</v>
       </c>
       <c r="G22">
-        <v>0.0007739618470883261</v>
+        <v>0.002502274162532944</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8811979733002957</v>
+        <v>1.452190913293833</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.533658093063821</v>
+        <v>1.531972492013324</v>
       </c>
       <c r="L22">
-        <v>0.558585798233608</v>
+        <v>0.3281746641600165</v>
       </c>
       <c r="M22">
-        <v>0.3761758705467741</v>
+        <v>0.2410402476481721</v>
       </c>
       <c r="N22">
-        <v>1.338840671817394</v>
+        <v>2.696225081399859</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.000085723775584</v>
+        <v>0.7074898214726204</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03541965472182351</v>
+        <v>0.08931978490824299</v>
       </c>
       <c r="E23">
-        <v>0.1658640563619294</v>
+        <v>0.1024728073869419</v>
       </c>
       <c r="F23">
-        <v>2.511582895641709</v>
+        <v>2.115791350727392</v>
       </c>
       <c r="G23">
-        <v>0.0007771272609625735</v>
+        <v>0.002504008103821522</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8714998635296212</v>
+        <v>1.452026547018399</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.351026527430236</v>
+        <v>1.487347526934627</v>
       </c>
       <c r="L23">
-        <v>0.5377723139028063</v>
+        <v>0.3235695744657363</v>
       </c>
       <c r="M23">
-        <v>0.3624140537658178</v>
+        <v>0.2379363706095887</v>
       </c>
       <c r="N23">
-        <v>1.34933253877054</v>
+        <v>2.701488252946675</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8603556699034698</v>
+        <v>0.6754931795130119</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03892544286743149</v>
+        <v>0.09026971249520965</v>
       </c>
       <c r="E24">
-        <v>0.1439479910885915</v>
+        <v>0.09669645095841872</v>
       </c>
       <c r="F24">
-        <v>2.211228340561988</v>
+        <v>2.058122887355779</v>
       </c>
       <c r="G24">
-        <v>0.0007892429325359348</v>
+        <v>0.002510830212519646</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8379589548653925</v>
+        <v>1.452320690998299</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.673548262979523</v>
+        <v>1.319347489834854</v>
       </c>
       <c r="L24">
-        <v>0.4607763739204387</v>
+        <v>0.3064207119838755</v>
       </c>
       <c r="M24">
-        <v>0.3112571092805965</v>
+        <v>0.2263784302712253</v>
       </c>
       <c r="N24">
-        <v>1.39361677702297</v>
+        <v>2.722739828974483</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7133775677603467</v>
+        <v>0.6421569925027768</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04285184900654748</v>
+        <v>0.09134824722577406</v>
       </c>
       <c r="E25">
-        <v>0.1213963225876284</v>
+        <v>0.0903741076141813</v>
       </c>
       <c r="F25">
-        <v>1.908003178807533</v>
+        <v>2.000087417693393</v>
       </c>
       <c r="G25">
-        <v>0.0008026506871591665</v>
+        <v>0.002518737990529189</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8077628049911993</v>
+        <v>1.454594284425156</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.966848776209758</v>
+        <v>1.140252921974025</v>
       </c>
       <c r="L25">
-        <v>0.3809400965812557</v>
+        <v>0.2885449492884362</v>
       </c>
       <c r="M25">
-        <v>0.2577806066651576</v>
+        <v>0.2143346154845851</v>
       </c>
       <c r="N25">
-        <v>1.450071459945477</v>
+        <v>2.748470574761782</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_188/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_188/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.618628007520158</v>
+        <v>0.6076865771500195</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09218878428082977</v>
+        <v>0.04585617236803374</v>
       </c>
       <c r="E2">
-        <v>0.08563459442923715</v>
+        <v>0.1054201624348643</v>
       </c>
       <c r="F2">
-        <v>1.960902129220301</v>
+        <v>1.698910125180419</v>
       </c>
       <c r="G2">
-        <v>0.002525037949218901</v>
+        <v>0.0008128756577992244</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.457948466860898</v>
+        <v>0.7899365489743531</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.010141107076464</v>
+        <v>2.461616616466102</v>
       </c>
       <c r="L2">
-        <v>0.2759125721007649</v>
+        <v>0.3242966224079851</v>
       </c>
       <c r="M2">
-        <v>0.2058299514185826</v>
+        <v>0.2195493314474639</v>
       </c>
       <c r="N2">
-        <v>2.769825489529772</v>
+        <v>1.498217169892428</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.603318653067646</v>
+        <v>0.5373310527779154</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0927874162145832</v>
+        <v>0.04795858943123843</v>
       </c>
       <c r="E3">
-        <v>0.08236719045959973</v>
+        <v>0.09485587927071393</v>
       </c>
       <c r="F3">
-        <v>1.936539090764086</v>
+        <v>1.564450086337899</v>
       </c>
       <c r="G3">
-        <v>0.002529608024369839</v>
+        <v>0.0008200522130212513</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.4612687311635</v>
+        <v>0.7802808888267379</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9230254759955585</v>
+        <v>2.126224083587658</v>
       </c>
       <c r="L3">
-        <v>0.2676792952302378</v>
+        <v>0.2869702488880392</v>
       </c>
       <c r="M3">
-        <v>0.200292546409468</v>
+        <v>0.1942111466468397</v>
       </c>
       <c r="N3">
-        <v>2.785798471458072</v>
+        <v>1.534561845186452</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5942337657181866</v>
+        <v>0.4946695335702174</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09316928904889821</v>
+        <v>0.04928105383325176</v>
       </c>
       <c r="E4">
-        <v>0.08033280062050352</v>
+        <v>0.08846199674964339</v>
       </c>
       <c r="F4">
-        <v>1.922656360596633</v>
+        <v>1.484995146882667</v>
       </c>
       <c r="G4">
-        <v>0.002532563185254732</v>
+        <v>0.0008245884487384201</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.463823668693415</v>
+        <v>0.7754524121469899</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8700509239259304</v>
+        <v>1.923040790422107</v>
       </c>
       <c r="L4">
-        <v>0.2627850741520774</v>
+        <v>0.2644946140329694</v>
       </c>
       <c r="M4">
-        <v>0.1970042163166497</v>
+        <v>0.1788933517341924</v>
       </c>
       <c r="N4">
-        <v>2.796345286285018</v>
+        <v>1.558595820471517</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5906111230870437</v>
+        <v>0.4774074459353272</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09332850378856339</v>
+        <v>0.04982775335993184</v>
       </c>
       <c r="E5">
-        <v>0.07949656594656318</v>
+        <v>0.0858747633069612</v>
       </c>
       <c r="F5">
-        <v>1.917269065996308</v>
+        <v>1.453333286972992</v>
       </c>
       <c r="G5">
-        <v>0.002533805056369165</v>
+        <v>0.0008264707267840524</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.464994648901211</v>
+        <v>0.7737481879556114</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8485919211350677</v>
+        <v>1.840837559203123</v>
       </c>
       <c r="L5">
-        <v>0.2608310945477683</v>
+        <v>0.2554360293623859</v>
       </c>
       <c r="M5">
-        <v>0.1956923172035125</v>
+        <v>0.1727058776731809</v>
       </c>
       <c r="N5">
-        <v>2.80082897792407</v>
+        <v>1.568806051615198</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5900143974127303</v>
+        <v>0.4745481656903507</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09335515861503829</v>
+        <v>0.04991899846794734</v>
       </c>
       <c r="E6">
-        <v>0.07935727133161308</v>
+        <v>0.08544612488275405</v>
       </c>
       <c r="F6">
-        <v>1.916390801452636</v>
+        <v>1.448117363225606</v>
       </c>
       <c r="G6">
-        <v>0.002534013543799155</v>
+        <v>0.00082678534498949</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.465196930248894</v>
+        <v>0.7734807426818264</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8450364088368758</v>
+        <v>1.827221084212255</v>
       </c>
       <c r="L6">
-        <v>0.2605090799722518</v>
+        <v>0.2539376173347279</v>
       </c>
       <c r="M6">
-        <v>0.1954761771947773</v>
+        <v>0.1716815940483762</v>
       </c>
       <c r="N6">
-        <v>2.801584708240618</v>
+        <v>1.570526146945397</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5941845871312097</v>
+        <v>0.4944362492712031</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09317142170582349</v>
+        <v>0.04928839548283026</v>
       </c>
       <c r="E7">
-        <v>0.08032155218761972</v>
+        <v>0.08842703646865857</v>
       </c>
       <c r="F7">
-        <v>1.922582613125883</v>
+        <v>1.484565323292486</v>
       </c>
       <c r="G7">
-        <v>0.002532579781137027</v>
+        <v>0.0008246136958489781</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.463838935303002</v>
+        <v>0.7754283786426868</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8697610009573111</v>
+        <v>1.921929878662922</v>
       </c>
       <c r="L7">
-        <v>0.2627585583513934</v>
+        <v>0.2643720541307886</v>
       </c>
       <c r="M7">
-        <v>0.1969864096616334</v>
+        <v>0.1788096912542905</v>
       </c>
       <c r="N7">
-        <v>2.796405002899021</v>
+        <v>1.55873185422066</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6132841025494145</v>
+        <v>0.5833089005722911</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09239222247498624</v>
+        <v>0.04657443336301759</v>
       </c>
       <c r="E8">
-        <v>0.08451377403241622</v>
+        <v>0.1017552417271403</v>
       </c>
       <c r="F8">
-        <v>1.952277993061486</v>
+        <v>1.651864118923314</v>
       </c>
       <c r="G8">
-        <v>0.002526582835881479</v>
+        <v>0.000815323870379141</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.458986136900776</v>
+        <v>0.7863707049339865</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9799962229496089</v>
+        <v>2.345342790660908</v>
       </c>
       <c r="L8">
-        <v>0.2730402853864291</v>
+        <v>0.3113277193827741</v>
       </c>
       <c r="M8">
-        <v>0.2038975035787018</v>
+        <v>0.2107593734601174</v>
       </c>
       <c r="N8">
-        <v>2.775179443131712</v>
+        <v>1.510382302620052</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6532287681117168</v>
+        <v>0.7624512810707813</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09097773541076926</v>
+        <v>0.04151096643529506</v>
       </c>
       <c r="E9">
-        <v>0.09251654099428919</v>
+        <v>0.1288764293672138</v>
       </c>
       <c r="F9">
-        <v>2.019083367273211</v>
+        <v>2.007715023424709</v>
       </c>
       <c r="G9">
-        <v>0.00251600042208649</v>
+        <v>0.0007980832732611148</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.453567285125089</v>
+        <v>0.8172036482942815</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.200304228289781</v>
+        <v>3.202207682444453</v>
       </c>
       <c r="L9">
-        <v>0.2944838366644262</v>
+        <v>0.4074616335864363</v>
       </c>
       <c r="M9">
-        <v>0.218335140214414</v>
+        <v>0.2755964735485534</v>
       </c>
       <c r="N9">
-        <v>2.739428505003815</v>
+        <v>1.429977131031251</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6840853477629594</v>
+        <v>0.8979520195332213</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09000764189842236</v>
+        <v>0.0379618668051096</v>
       </c>
       <c r="E10">
-        <v>0.09827123740057786</v>
+        <v>0.1497947225356668</v>
       </c>
       <c r="F10">
-        <v>2.073445500873348</v>
+        <v>2.290928594682626</v>
       </c>
       <c r="G10">
-        <v>0.002508935568559459</v>
+        <v>0.0007859309072985043</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.452086783023951</v>
+        <v>0.8465540716804796</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.364776578270835</v>
+        <v>3.855248983336423</v>
       </c>
       <c r="L10">
-        <v>0.3110261084698038</v>
+        <v>0.4813896557920572</v>
       </c>
       <c r="M10">
-        <v>0.2294821760458419</v>
+        <v>0.3249917050053099</v>
       </c>
       <c r="N10">
-        <v>2.716750456849283</v>
+        <v>1.380867292708714</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6984488811767449</v>
+        <v>0.9606650523564326</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08958131868310915</v>
+        <v>0.03638821010546245</v>
       </c>
       <c r="E11">
-        <v>0.1008638444543415</v>
+        <v>0.1596281023541053</v>
       </c>
       <c r="F11">
-        <v>2.099335074379539</v>
+        <v>2.425710869488896</v>
       </c>
       <c r="G11">
-        <v>0.002505874092857751</v>
+        <v>0.0007804940192861401</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.451957013929118</v>
+        <v>0.8616044493198629</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.440187090843892</v>
+        <v>4.159280472139187</v>
       </c>
       <c r="L11">
-        <v>0.3187242491797804</v>
+        <v>0.5159439106346326</v>
       </c>
       <c r="M11">
-        <v>0.2346705896227022</v>
+        <v>0.3479509818521791</v>
       </c>
       <c r="N11">
-        <v>2.707214634723613</v>
+        <v>1.360985354739924</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7039347407521177</v>
+        <v>0.9845878455252546</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08942203572926566</v>
+        <v>0.03579858027154081</v>
       </c>
       <c r="E12">
-        <v>0.1018421047267495</v>
+        <v>0.1634072261725521</v>
       </c>
       <c r="F12">
-        <v>2.109306433428713</v>
+        <v>2.477718562058172</v>
       </c>
       <c r="G12">
-        <v>0.002504736574118122</v>
+        <v>0.0007784464721685916</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.451986103543483</v>
+        <v>0.8675706328265136</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.468829415154005</v>
+        <v>4.2755830717918</v>
       </c>
       <c r="L12">
-        <v>0.3216642960575484</v>
+        <v>0.5291807666319102</v>
       </c>
       <c r="M12">
-        <v>0.2366521954038348</v>
+        <v>0.3567251750134091</v>
       </c>
       <c r="N12">
-        <v>2.703716087063654</v>
+        <v>1.353838099758391</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7027511901367234</v>
+        <v>0.9794275262080419</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08945624421038545</v>
+        <v>0.0359252810662678</v>
       </c>
       <c r="E13">
-        <v>0.1016315727042389</v>
+        <v>0.1625906888979181</v>
       </c>
       <c r="F13">
-        <v>2.107151459625655</v>
+        <v>2.466472754676886</v>
       </c>
       <c r="G13">
-        <v>0.002504980591669939</v>
+        <v>0.0007788869777176915</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.451976358528071</v>
+        <v>0.8662734504239111</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.462656937453062</v>
+        <v>4.250480134070415</v>
       </c>
       <c r="L13">
-        <v>0.3210299948000852</v>
+        <v>0.5263228915142122</v>
       </c>
       <c r="M13">
-        <v>0.2362246716509944</v>
+        <v>0.3548317721792742</v>
       </c>
       <c r="N13">
-        <v>2.704464556578358</v>
+        <v>1.355359936476347</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6988992717838585</v>
+        <v>0.9626295690197537</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08956817114470894</v>
+        <v>0.03633957246370834</v>
       </c>
       <c r="E14">
-        <v>0.1009443960168284</v>
+        <v>0.1599378414408363</v>
       </c>
       <c r="F14">
-        <v>2.100152062088583</v>
+        <v>2.429969467044756</v>
       </c>
       <c r="G14">
-        <v>0.002505780072541562</v>
+        <v>0.0007803253514246853</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.451957839035295</v>
+        <v>0.8620898029103685</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.442541782852061</v>
+        <v>4.168824205173337</v>
       </c>
       <c r="L14">
-        <v>0.3189656286960485</v>
+        <v>0.5170297539139739</v>
       </c>
       <c r="M14">
-        <v>0.2348332797284769</v>
+        <v>0.3486711774587548</v>
       </c>
       <c r="N14">
-        <v>2.706924551928708</v>
+        <v>1.360389525915636</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6965459341498672</v>
+        <v>0.9523637301440147</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08963701053431983</v>
+        <v>0.03659416900184187</v>
       </c>
       <c r="E15">
-        <v>0.1005230278868652</v>
+        <v>0.1583204276432717</v>
       </c>
       <c r="F15">
-        <v>2.095886569641024</v>
+        <v>2.407739868046335</v>
       </c>
       <c r="G15">
-        <v>0.002506272612430574</v>
+        <v>0.0007812078084615122</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.451956684563378</v>
+        <v>0.8595626730276607</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.430231899004752</v>
+        <v>4.118965712015324</v>
       </c>
       <c r="L15">
-        <v>0.3177043928474319</v>
+        <v>0.5113578216636938</v>
       </c>
       <c r="M15">
-        <v>0.2339832072871175</v>
+        <v>0.344908359431976</v>
       </c>
       <c r="N15">
-        <v>2.708446022526033</v>
+        <v>1.363520877078912</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6831532074710935</v>
+        <v>0.8938768695020087</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09003580472645023</v>
+        <v>0.03806556402936945</v>
       </c>
       <c r="E16">
-        <v>0.09810130731077038</v>
+        <v>0.1491592841780225</v>
       </c>
       <c r="F16">
-        <v>2.071776960673347</v>
+        <v>2.282249335272809</v>
       </c>
       <c r="G16">
-        <v>0.002509138699375534</v>
+        <v>0.0007862879045444428</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.452106208482768</v>
+        <v>0.8456065611199008</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.359860304460597</v>
+        <v>3.835534094773834</v>
       </c>
       <c r="L16">
-        <v>0.3105265022166463</v>
+        <v>0.4791516294663865</v>
       </c>
       <c r="M16">
-        <v>0.229145463373726</v>
+        <v>0.3235019100204681</v>
       </c>
       <c r="N16">
-        <v>2.717389370417351</v>
+        <v>1.382218425467656</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.675020683899163</v>
+        <v>0.8582858362868819</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09028428989630655</v>
+        <v>0.03897894629116472</v>
       </c>
       <c r="E17">
-        <v>0.09660928570790972</v>
+        <v>0.1436271075294542</v>
       </c>
       <c r="F17">
-        <v>2.057284113331662</v>
+        <v>2.206864950559876</v>
       </c>
       <c r="G17">
-        <v>0.002510935892752482</v>
+        <v>0.0007894265082249105</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.452337226751311</v>
+        <v>0.8374954273966537</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.316841730473925</v>
+        <v>3.663556703987467</v>
       </c>
       <c r="L17">
-        <v>0.3061674406385038</v>
+        <v>0.4596437624485503</v>
       </c>
       <c r="M17">
-        <v>0.2262077479346587</v>
+        <v>0.3105016098549171</v>
       </c>
       <c r="N17">
-        <v>2.72307589437753</v>
+        <v>1.394337463847478</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6703738405760191</v>
+        <v>0.8379144840396009</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09042862154041842</v>
+        <v>0.03950811609333726</v>
       </c>
       <c r="E18">
-        <v>0.09574873173700382</v>
+        <v>0.1404743781528524</v>
       </c>
       <c r="F18">
-        <v>2.049057347678158</v>
+        <v>2.164058118999989</v>
       </c>
       <c r="G18">
-        <v>0.002511983938906653</v>
+        <v>0.0007912404632777782</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.452521276960887</v>
+        <v>0.8329885233497976</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.29215417283865</v>
+        <v>3.565283582424513</v>
       </c>
       <c r="L18">
-        <v>0.3036765019299281</v>
+        <v>0.4485090749347052</v>
       </c>
       <c r="M18">
-        <v>0.2245291204265172</v>
+        <v>0.3030695870478652</v>
       </c>
       <c r="N18">
-        <v>2.726420086774539</v>
+        <v>1.40153755627577</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6688057924909003</v>
+        <v>0.831033621673555</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09047773176807716</v>
+        <v>0.03968792813363464</v>
       </c>
       <c r="E19">
-        <v>0.09545694995456344</v>
+        <v>0.1394116616355241</v>
       </c>
       <c r="F19">
-        <v>2.046290628211707</v>
+        <v>2.149656060072104</v>
       </c>
       <c r="G19">
-        <v>0.002512341256809323</v>
+        <v>0.0007918561868677498</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.452592381168934</v>
+        <v>0.8314891161930902</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.283804907622653</v>
+        <v>3.532115631887734</v>
       </c>
       <c r="L19">
-        <v>0.3028359070613078</v>
+        <v>0.4447532360610325</v>
       </c>
       <c r="M19">
-        <v>0.2239626683011124</v>
+        <v>0.3005607511747002</v>
       </c>
       <c r="N19">
-        <v>2.727564982019587</v>
+        <v>1.40401400071616</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6758832224723221</v>
+        <v>0.8620641054867235</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09025769232495495</v>
+        <v>0.03888131747982815</v>
       </c>
       <c r="E20">
-        <v>0.09676835964211961</v>
+        <v>0.1442129250244086</v>
       </c>
       <c r="F20">
-        <v>2.05881560114652</v>
+        <v>2.214831807089155</v>
       </c>
       <c r="G20">
-        <v>0.002510743094474292</v>
+        <v>0.0007890915094167899</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.452307337788412</v>
+        <v>0.8383423202751175</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.321415370846637</v>
+        <v>3.681796185512667</v>
       </c>
       <c r="L20">
-        <v>0.3066297850664057</v>
+        <v>0.4617114048103588</v>
       </c>
       <c r="M20">
-        <v>0.2265193274850219</v>
+        <v>0.3118807476514149</v>
       </c>
       <c r="N20">
-        <v>2.722462950412137</v>
+        <v>1.393023420928628</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7000294083458414</v>
+        <v>0.9675586214508485</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08953523694399923</v>
+        <v>0.03621771100991822</v>
       </c>
       <c r="E21">
-        <v>0.1011463305576399</v>
+        <v>0.160715458080027</v>
       </c>
       <c r="F21">
-        <v>2.102203401910216</v>
+        <v>2.440664113592533</v>
       </c>
       <c r="G21">
-        <v>0.002505544654805431</v>
+        <v>0.0007799025756446674</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.451961155145717</v>
+        <v>0.8633112048258695</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.448447749434933</v>
+        <v>4.192775243945846</v>
       </c>
       <c r="L21">
-        <v>0.3195713060835885</v>
+        <v>0.5197550890265319</v>
       </c>
       <c r="M21">
-        <v>0.2352415078391985</v>
+        <v>0.350478439880149</v>
       </c>
       <c r="N21">
-        <v>2.706198937710056</v>
+        <v>1.358901617687252</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7160824182790293</v>
+        <v>1.037534800559087</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08907564114734257</v>
+        <v>0.03451373667190616</v>
       </c>
       <c r="E22">
-        <v>0.103987223907918</v>
+        <v>0.1718294670228886</v>
       </c>
       <c r="F22">
-        <v>2.131536735629055</v>
+        <v>2.593966303123437</v>
       </c>
       <c r="G22">
-        <v>0.002502274162532944</v>
+        <v>0.0007739618470872159</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.452190913293833</v>
+        <v>0.8811979733003028</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.531972492013324</v>
+        <v>4.533658093063821</v>
       </c>
       <c r="L22">
-        <v>0.3281746641600165</v>
+        <v>0.5585857982334659</v>
       </c>
       <c r="M22">
-        <v>0.2410402476481721</v>
+        <v>0.3761758705467599</v>
       </c>
       <c r="N22">
-        <v>2.696225081399859</v>
+        <v>1.338840671817437</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7074898214726204</v>
+        <v>1.000085723775413</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08931978490824299</v>
+        <v>0.03541965472171338</v>
       </c>
       <c r="E23">
-        <v>0.1024728073869419</v>
+        <v>0.1658640563618938</v>
       </c>
       <c r="F23">
-        <v>2.115791350727392</v>
+        <v>2.511582895641681</v>
       </c>
       <c r="G23">
-        <v>0.002504008103821522</v>
+        <v>0.0007771272610193179</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.452026547018399</v>
+        <v>0.8714998635296354</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.487347526934627</v>
+        <v>4.351026527430236</v>
       </c>
       <c r="L23">
-        <v>0.3235695744657363</v>
+        <v>0.5377723139027069</v>
       </c>
       <c r="M23">
-        <v>0.2379363706095887</v>
+        <v>0.3624140537658107</v>
       </c>
       <c r="N23">
-        <v>2.701488252946675</v>
+        <v>1.349332538770526</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6754931795130119</v>
+        <v>0.8603556699033845</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09026971249520965</v>
+        <v>0.03892544286743238</v>
       </c>
       <c r="E24">
-        <v>0.09669645095841872</v>
+        <v>0.1439479910886163</v>
       </c>
       <c r="F24">
-        <v>2.058122887355779</v>
+        <v>2.211228340562002</v>
       </c>
       <c r="G24">
-        <v>0.002510830212519646</v>
+        <v>0.0007892429325969812</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.452320690998299</v>
+        <v>0.8379589548653783</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.319347489834854</v>
+        <v>3.67354826297958</v>
       </c>
       <c r="L24">
-        <v>0.3064207119838755</v>
+        <v>0.4607763739204245</v>
       </c>
       <c r="M24">
-        <v>0.2263784302712253</v>
+        <v>0.3112571092806107</v>
       </c>
       <c r="N24">
-        <v>2.722739828974483</v>
+        <v>1.393616777023041</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6421569925027768</v>
+        <v>0.7133775677603751</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09134824722577406</v>
+        <v>0.042851849006456</v>
       </c>
       <c r="E25">
-        <v>0.0903741076141813</v>
+        <v>0.1213963225876284</v>
       </c>
       <c r="F25">
-        <v>2.000087417693393</v>
+        <v>1.908003178807547</v>
       </c>
       <c r="G25">
-        <v>0.002518737990529189</v>
+        <v>0.0008026506870518757</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.454594284425156</v>
+        <v>0.8077628049911851</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.140252921974025</v>
+        <v>2.966848776209758</v>
       </c>
       <c r="L25">
-        <v>0.2885449492884362</v>
+        <v>0.3809400965811989</v>
       </c>
       <c r="M25">
-        <v>0.2143346154845851</v>
+        <v>0.2577806066651434</v>
       </c>
       <c r="N25">
-        <v>2.748470574761782</v>
+        <v>1.45007145994542</v>
       </c>
       <c r="O25">
         <v>0</v>
